--- a/projet/media/ressources/etapes.xlsx
+++ b/projet/media/ressources/etapes.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -37,9 +42,6 @@
     <t>Actualisation des élements de maturation</t>
   </si>
   <si>
-    <t>lettre de Saisine</t>
-  </si>
-  <si>
     <t>APPEL D'OFFRES OUVERT</t>
   </si>
   <si>
@@ -236,19 +238,16 @@
   </si>
   <si>
     <t>Art 111 alinéa 1 et 4</t>
+  </si>
+  <si>
+    <t>Lettre de Saisine, Lettre de réponse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,152 +282,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,194 +296,8 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -716,251 +385,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1015,61 +442,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1327,28 +710,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="54.1416666666667" style="2" customWidth="1"/>
-    <col min="2" max="3" width="32.8583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.8583333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="32.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30.6" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="30.65" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1376,209 +759,209 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="30.65" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="9">
         <v>14</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="9">
         <v>10</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
         <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9">
         <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29">
+      <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
         <v>15</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="9">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="30.6" customHeight="1" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.65" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1586,243 +969,243 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="18" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5">
       <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="C16" s="9">
         <v>5</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C17" s="9">
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="9">
         <v>10</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="B19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="9">
         <v>20</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="9">
         <v>30</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29">
+      <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9">
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29">
+      <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:6">
-      <c r="A22" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="B22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9">
         <v>15</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:6">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="C23" s="9">
         <v>5</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="B24" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="9">
         <v>5</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="B25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9">
         <v>15</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" ht="30.6" customHeight="1" spans="1:6">
+    </row>
+    <row r="26" spans="1:6" ht="30.65" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1830,149 +1213,149 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="18" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29">
+      <c r="A28" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B28" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9">
         <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.5">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:6">
-      <c r="A29" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="B29" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="B30" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="9">
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29">
       <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="C31" s="9">
         <v>5</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="F31" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29">
+      <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="B32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="9">
         <v>5</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="F32" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" ht="28.5" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="B33" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9">
         <v>15</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="F33" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" ht="30.6" customHeight="1" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30.65" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -1980,61 +1363,61 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="18" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.5">
+      <c r="A35" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:6">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.5">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:6">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.5">
+      <c r="A37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="B37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" ht="30.6" customHeight="1" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30.65" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2042,165 +1425,164 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="18" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F38" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="14.5">
+      <c r="A39" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A39" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="B39" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="14.25" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="14.5">
       <c r="A40" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.5">
+      <c r="A41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:6">
-      <c r="A41" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="B41" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9">
         <v>4</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.5">
+      <c r="A42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:6">
-      <c r="A42" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="B42" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9">
         <v>2</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.5">
+      <c r="A43" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:6">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C43" s="9">
         <v>14</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="29">
       <c r="A44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="C44" s="9">
         <v>5</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="F44" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29">
+      <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="B45" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="9">
         <v>5</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="F45" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29">
+      <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:6">
-      <c r="A46" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="B46" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="15">
         <v>15</v>
       </c>
       <c r="D46" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="F46" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.0393700787401575" right="0.0393700787401575" top="0.15748031496063" bottom="0.15748031496063" header="0.118110236220472" footer="0.118110236220472"/>
-  <pageSetup paperSize="1" scale="60" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="0.15748031496063" bottom="0.15748031496063" header="0.118110236220472" footer="0.118110236220472"/>
+  <pageSetup scale="60" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>